--- a/Data/EC/NIT-9015243833.xlsx
+++ b/Data/EC/NIT-9015243833.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BF46D18-0FD6-4452-A9BB-2DFEB5816FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD5284C-3C5B-407E-A140-60D16BF1D0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CE88121E-E855-41AD-925B-60DE103B64DB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0941D902-ED52-46BA-B7A5-E171D6374622}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="106">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,75 @@
     <t>CC</t>
   </si>
   <si>
+    <t>3817925</t>
+  </si>
+  <si>
+    <t>ROBERTO JAVIER MACHACON PAJARO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>73208251</t>
+  </si>
+  <si>
+    <t>JHON JAVIER SILGADO GUTIERREZ</t>
+  </si>
+  <si>
+    <t>51882455</t>
+  </si>
+  <si>
+    <t>CARMEN ELVIRA MENDIVELSO FORERO</t>
+  </si>
+  <si>
+    <t>1128050979</t>
+  </si>
+  <si>
+    <t>MARCELA PATRICIA GOMEZ SALAZAR</t>
+  </si>
+  <si>
     <t>9285244</t>
   </si>
   <si>
@@ -74,178 +143,184 @@
     <t>2201</t>
   </si>
   <si>
+    <t>73561053</t>
+  </si>
+  <si>
+    <t>WALBERTO SERPA OROZCO</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>1143363691</t>
+  </si>
+  <si>
+    <t>MARYAN INES PEREZ MARTELO</t>
+  </si>
+  <si>
     <t>PE</t>
   </si>
   <si>
+    <t>994337015121986</t>
+  </si>
+  <si>
+    <t>JOSE LEONARDO LOPEZ GAUNA</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>6659937</t>
+  </si>
+  <si>
+    <t>YAHIRCINIO JOSE VALERA ABREU</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>9286244</t>
+  </si>
+  <si>
+    <t>JAIRO DE JESUS SABALZA BORRE</t>
+  </si>
+  <si>
+    <t>1050971359</t>
+  </si>
+  <si>
+    <t>LAURA VANESSA BRIEVA ALVAREZ</t>
+  </si>
+  <si>
+    <t>77035196</t>
+  </si>
+  <si>
+    <t>MANUEL FRANCISCO YEPES CUADRO</t>
+  </si>
+  <si>
+    <t>1143370733</t>
+  </si>
+  <si>
+    <t>RICHARD DAVID HERRERA PAMZZA</t>
+  </si>
+  <si>
+    <t>1007971093</t>
+  </si>
+  <si>
+    <t>YOREYSI MARGARITA CASSIANI TORRES</t>
+  </si>
+  <si>
+    <t>1007856828</t>
+  </si>
+  <si>
+    <t>ANDRU JOSE VARGAS ACEVEDO</t>
+  </si>
+  <si>
+    <t>1007381252</t>
+  </si>
+  <si>
+    <t>JUAN DIEGO ARNEDO BERRIO</t>
+  </si>
+  <si>
     <t>994067029092000</t>
   </si>
   <si>
     <t>CARLOS DANIEL JIMENEZ HIDALGO</t>
   </si>
   <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>6659937</t>
-  </si>
-  <si>
-    <t>YAHIRCINIO JOSE VALERA ABREU</t>
-  </si>
-  <si>
-    <t>2204</t>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
   </si>
   <si>
     <t>2205</t>
   </si>
   <si>
+    <t>1050965297</t>
+  </si>
+  <si>
+    <t>BAYRON DARIO LIÑAN GARCIA</t>
+  </si>
+  <si>
     <t>20365567</t>
   </si>
   <si>
     <t>RODNEY JOSE MARTINEZ RODRIGUEZ</t>
   </si>
   <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>994337015121986</t>
-  </si>
-  <si>
-    <t>JOSE LEONARDO LOPEZ GAUNA</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
     <t>8631177</t>
   </si>
   <si>
     <t>ADAN RAFAEL JARAMILLO VILLARREAL</t>
   </si>
   <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>73561053</t>
-  </si>
-  <si>
-    <t>WALBERTO SERPA OROZCO</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>1050965297</t>
-  </si>
-  <si>
-    <t>BAYRON DARIO LIÑAN GARCIA</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>3817925</t>
-  </si>
-  <si>
-    <t>ROBERTO JAVIER MACHACON PAJARO</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>1007802164</t>
+  </si>
+  <si>
+    <t>JUAN JOSE GALVAN CASTILLA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -659,7 +734,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D50F989-A5CA-8621-636C-A6500F7BECD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4556D391-59CE-6568-825E-C01CB734C6C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,8 +1085,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F9F627-A35D-4F1A-81FE-ACA09195E720}">
-  <dimension ref="B2:J137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A489957-012F-457C-85B2-730347D6FC2B}">
+  <dimension ref="B2:J163"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1022,7 +1097,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1035,7 +1110,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1080,7 +1155,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1112,12 +1187,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>5251667</v>
+        <v>7630207</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1128,17 +1203,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="F13" s="5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1165,13 +1240,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1188,10 +1263,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G16" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1199,22 +1274,22 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>15</v>
-      </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1222,22 +1297,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>48000</v>
+        <v>60000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1245,22 +1320,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1268,22 +1343,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1291,22 +1366,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1317,19 +1392,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>28000</v>
+        <v>60000</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1337,22 +1412,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1363,19 +1438,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1383,22 +1458,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1409,19 +1484,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="F26" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G26" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1429,22 +1504,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1455,19 +1530,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1475,22 +1550,22 @@
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G29" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1501,19 +1576,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G30" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1521,22 +1596,22 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1544,22 +1619,22 @@
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F32" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G32" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1567,22 +1642,22 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="F33" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1593,19 +1668,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F34" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1613,22 +1688,22 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1636,22 +1711,22 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1659,22 +1734,22 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
-        <v>40000</v>
+        <v>180000</v>
       </c>
       <c r="G37" s="18">
-        <v>1000000</v>
+        <v>4260000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1682,22 +1757,22 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F38" s="18">
-        <v>40000</v>
+        <v>180000</v>
       </c>
       <c r="G38" s="18">
-        <v>1000000</v>
+        <v>4260000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1705,22 +1780,22 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>180000</v>
       </c>
       <c r="G39" s="18">
-        <v>1000000</v>
+        <v>4260000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1731,19 +1806,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>180000</v>
       </c>
       <c r="G40" s="18">
-        <v>2500000</v>
+        <v>4260000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1751,22 +1826,22 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>180000</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>4260000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1774,22 +1849,22 @@
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>180000</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>4260000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1797,22 +1872,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F43" s="18">
-        <v>40000</v>
+        <v>240000</v>
       </c>
       <c r="G43" s="18">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1829,13 +1904,13 @@
         <v>33</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44" s="18">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="G44" s="18">
-        <v>2500000</v>
+        <v>1000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1843,22 +1918,22 @@
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F45" s="18">
-        <v>40000</v>
+        <v>1667</v>
       </c>
       <c r="G45" s="18">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1869,19 +1944,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="G46" s="18">
-        <v>2500000</v>
+        <v>828116</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1889,16 +1964,16 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1912,16 +1987,16 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
@@ -1935,22 +2010,22 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="F49" s="18">
-        <v>1667</v>
+        <v>40000</v>
       </c>
       <c r="G49" s="18">
-        <v>1250000</v>
+        <v>1000000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1958,16 +2033,16 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -1981,16 +2056,16 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -2004,16 +2079,16 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -2027,16 +2102,16 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -2050,16 +2125,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -2073,16 +2148,16 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
@@ -2096,16 +2171,16 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2119,16 +2194,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
@@ -2142,16 +2217,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2165,16 +2240,16 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
@@ -2188,16 +2263,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2211,16 +2286,16 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2234,16 +2309,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F62" s="18">
         <v>40000</v>
@@ -2257,16 +2332,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" s="18">
         <v>40000</v>
@@ -2280,16 +2355,16 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F64" s="18">
         <v>40000</v>
@@ -2303,13 +2378,13 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>46</v>
@@ -2326,13 +2401,13 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>47</v>
@@ -2349,16 +2424,16 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F67" s="18">
         <v>40000</v>
@@ -2372,16 +2447,16 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F68" s="18">
         <v>40000</v>
@@ -2395,16 +2470,16 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F69" s="18">
         <v>40000</v>
@@ -2418,16 +2493,16 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F70" s="18">
         <v>40000</v>
@@ -2441,16 +2516,16 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F71" s="18">
         <v>40000</v>
@@ -2464,16 +2539,16 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F72" s="18">
         <v>40000</v>
@@ -2487,16 +2562,16 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F73" s="18">
         <v>40000</v>
@@ -2510,16 +2585,16 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F74" s="18">
         <v>40000</v>
@@ -2533,16 +2608,16 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F75" s="18">
         <v>40000</v>
@@ -2556,22 +2631,22 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F76" s="18">
-        <v>34000</v>
+        <v>40000</v>
       </c>
       <c r="G76" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2579,16 +2654,16 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F77" s="18">
         <v>40000</v>
@@ -2602,16 +2677,16 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F78" s="18">
         <v>40000</v>
@@ -2625,22 +2700,22 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F79" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G79" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2648,16 +2723,16 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F80" s="18">
         <v>40000</v>
@@ -2671,22 +2746,22 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F81" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G81" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2694,16 +2769,16 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F82" s="18">
         <v>40000</v>
@@ -2717,22 +2792,22 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F83" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G83" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2740,22 +2815,22 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F84" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G84" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2763,22 +2838,22 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F85" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G85" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2789,19 +2864,19 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F86" s="18">
-        <v>60000</v>
+        <v>57600</v>
       </c>
       <c r="G86" s="18">
-        <v>1500000</v>
+        <v>1440000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2812,13 +2887,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F87" s="18">
         <v>60000</v>
@@ -2832,22 +2907,22 @@
     </row>
     <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F88" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G88" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
@@ -2858,19 +2933,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F89" s="18">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="G89" s="18">
-        <v>1500000</v>
+        <v>1450000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2881,19 +2956,19 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F90" s="18">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="G90" s="18">
-        <v>1500000</v>
+        <v>1450000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2901,22 +2976,22 @@
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F91" s="18">
-        <v>40000</v>
+        <v>58000</v>
       </c>
       <c r="G91" s="18">
-        <v>1000000</v>
+        <v>1450000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2924,16 +2999,16 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F92" s="18">
         <v>40000</v>
@@ -2947,22 +3022,22 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F93" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G93" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
@@ -2970,16 +3045,16 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F94" s="18">
         <v>40000</v>
@@ -2993,22 +3068,22 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F95" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G95" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3016,16 +3091,16 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F96" s="18">
         <v>40000</v>
@@ -3039,22 +3114,22 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F97" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G97" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
@@ -3062,16 +3137,16 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="F98" s="18">
         <v>40000</v>
@@ -3085,22 +3160,22 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F99" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G99" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3108,16 +3183,16 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="F100" s="18">
         <v>40000</v>
@@ -3131,22 +3206,22 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F101" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G101" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
@@ -3154,22 +3229,22 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F102" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G102" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
@@ -3177,16 +3252,16 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="F103" s="18">
         <v>40000</v>
@@ -3200,22 +3275,22 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F104" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G104" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3223,22 +3298,22 @@
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="F105" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G105" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
@@ -3246,16 +3321,16 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C106" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E106" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E106" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="F106" s="18">
         <v>40000</v>
@@ -3269,16 +3344,16 @@
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="F107" s="18">
         <v>40000</v>
@@ -3292,22 +3367,22 @@
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="F108" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G108" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3315,16 +3390,16 @@
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="F109" s="18">
         <v>40000</v>
@@ -3338,22 +3413,22 @@
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F110" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G110" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
@@ -3361,16 +3436,16 @@
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F111" s="18">
         <v>40000</v>
@@ -3384,16 +3459,16 @@
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F112" s="18">
         <v>40000</v>
@@ -3407,16 +3482,16 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F113" s="18">
         <v>40000</v>
@@ -3430,22 +3505,22 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="F114" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G114" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H114" s="19"/>
       <c r="I114" s="19"/>
@@ -3453,22 +3528,22 @@
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="F115" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G115" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3476,16 +3551,16 @@
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F116" s="18">
         <v>40000</v>
@@ -3499,22 +3574,22 @@
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D117" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E117" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E117" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F117" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G117" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
@@ -3522,22 +3597,22 @@
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F118" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G118" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
@@ -3545,16 +3620,16 @@
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F119" s="18">
         <v>40000</v>
@@ -3568,22 +3643,22 @@
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F120" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G120" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3591,16 +3666,16 @@
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F121" s="18">
         <v>40000</v>
@@ -3614,16 +3689,16 @@
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="F122" s="18">
         <v>40000</v>
@@ -3637,22 +3712,22 @@
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F123" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G123" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3660,16 +3735,16 @@
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="F124" s="18">
         <v>40000</v>
@@ -3683,22 +3758,22 @@
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F125" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G125" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
@@ -3706,22 +3781,22 @@
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F126" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G126" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H126" s="19"/>
       <c r="I126" s="19"/>
@@ -3729,16 +3804,16 @@
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F127" s="18">
         <v>40000</v>
@@ -3752,16 +3827,16 @@
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F128" s="18">
         <v>40000</v>
@@ -3775,16 +3850,16 @@
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="F129" s="18">
         <v>40000</v>
@@ -3798,78 +3873,676 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="F130" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G130" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
       <c r="J130" s="20"/>
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B131" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D131" s="23" t="s">
+      <c r="B131" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F131" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G131" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H131" s="19"/>
+      <c r="I131" s="19"/>
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B132" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F132" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G132" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H132" s="19"/>
+      <c r="I132" s="19"/>
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B133" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D133" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G133" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H133" s="19"/>
+      <c r="I133" s="19"/>
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B134" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D134" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G134" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B135" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D135" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G135" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H135" s="19"/>
+      <c r="I135" s="19"/>
+      <c r="J135" s="20"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B136" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D136" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G136" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H136" s="19"/>
+      <c r="I136" s="19"/>
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B137" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D137" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G137" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H137" s="19"/>
+      <c r="I137" s="19"/>
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B138" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G138" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H138" s="19"/>
+      <c r="I138" s="19"/>
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B139" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D139" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F139" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G139" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B140" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D140" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G140" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H140" s="19"/>
+      <c r="I140" s="19"/>
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B141" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G141" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B142" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G142" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F143" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G143" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G144" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B145" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F145" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G145" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B146" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F146" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G146" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="20"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B147" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F147" s="18">
+        <v>34000</v>
+      </c>
+      <c r="G147" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="20"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B148" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F148" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G148" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="20"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B149" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F149" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G149" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="20"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B150" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F150" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G150" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="20"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B151" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F151" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G151" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="20"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F152" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G152" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="20"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B153" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F153" s="18">
+        <v>28000</v>
+      </c>
+      <c r="G153" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="20"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B154" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F154" s="18">
+        <v>100000</v>
+      </c>
+      <c r="G154" s="18">
+        <v>2500000</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B155" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E155" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E131" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F131" s="24">
-        <v>60000</v>
-      </c>
-      <c r="G131" s="24">
-        <v>1500000</v>
-      </c>
-      <c r="H131" s="25"/>
-      <c r="I131" s="25"/>
-      <c r="J131" s="26"/>
-    </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B136" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C136" s="32"/>
-      <c r="H136" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-    </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B137" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C137" s="32"/>
-      <c r="H137" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
+      <c r="F155" s="18">
+        <v>100000</v>
+      </c>
+      <c r="G155" s="18">
+        <v>2500000</v>
+      </c>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="20"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B156" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F156" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G156" s="18">
+        <v>2500000</v>
+      </c>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="20"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B157" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D157" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E157" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" s="24">
+        <v>58000</v>
+      </c>
+      <c r="G157" s="24">
+        <v>1450000</v>
+      </c>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="26"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B162" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C162" s="32"/>
+      <c r="H162" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B163" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C163" s="32"/>
+      <c r="H163" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="H137:J137"/>
-    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="H163:J163"/>
+    <mergeCell ref="H162:J162"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9015243833.xlsx
+++ b/Data/EC/NIT-9015243833.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FD5284C-3C5B-407E-A140-60D16BF1D0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8F7DC2-2DCD-468D-8398-24116AEE2231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0941D902-ED52-46BA-B7A5-E171D6374622}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FB1F5927-630E-47F0-9B58-40EADE817DFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="83">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,262 +65,193 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9285244</t>
+  </si>
+  <si>
+    <t>OSCAR LUIS TORRES PEREZ</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>PPT</t>
+  </si>
+  <si>
+    <t>6659937</t>
+  </si>
+  <si>
+    <t>YAHIRCINIO JOSE VALERA ABREU</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>994067029092000</t>
+  </si>
+  <si>
+    <t>CARLOS DANIEL JIMENEZ HIDALGO</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>20365567</t>
+  </si>
+  <si>
+    <t>RODNEY JOSE MARTINEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>994337015121986</t>
+  </si>
+  <si>
+    <t>JOSE LEONARDO LOPEZ GAUNA</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>8631177</t>
+  </si>
+  <si>
+    <t>ADAN RAFAEL JARAMILLO VILLARREAL</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>73561053</t>
+  </si>
+  <si>
+    <t>WALBERTO SERPA OROZCO</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
     <t>3817925</t>
   </si>
   <si>
     <t>ROBERTO JAVIER MACHACON PAJARO</t>
   </si>
   <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>1050965297</t>
+  </si>
+  <si>
+    <t>BAYRON DARIO LIÑAN GARCIA</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>73208251</t>
-  </si>
-  <si>
-    <t>JHON JAVIER SILGADO GUTIERREZ</t>
-  </si>
-  <si>
-    <t>51882455</t>
-  </si>
-  <si>
-    <t>CARMEN ELVIRA MENDIVELSO FORERO</t>
-  </si>
-  <si>
-    <t>1128050979</t>
-  </si>
-  <si>
-    <t>MARCELA PATRICIA GOMEZ SALAZAR</t>
-  </si>
-  <si>
-    <t>9285244</t>
-  </si>
-  <si>
-    <t>OSCAR LUIS TORRES PEREZ</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>73561053</t>
-  </si>
-  <si>
-    <t>WALBERTO SERPA OROZCO</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>1143363691</t>
-  </si>
-  <si>
-    <t>MARYAN INES PEREZ MARTELO</t>
-  </si>
-  <si>
-    <t>PE</t>
-  </si>
-  <si>
-    <t>994337015121986</t>
-  </si>
-  <si>
-    <t>JOSE LEONARDO LOPEZ GAUNA</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>PPT</t>
-  </si>
-  <si>
-    <t>6659937</t>
-  </si>
-  <si>
-    <t>YAHIRCINIO JOSE VALERA ABREU</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>9286244</t>
-  </si>
-  <si>
-    <t>JAIRO DE JESUS SABALZA BORRE</t>
-  </si>
-  <si>
-    <t>1050971359</t>
-  </si>
-  <si>
-    <t>LAURA VANESSA BRIEVA ALVAREZ</t>
-  </si>
-  <si>
-    <t>77035196</t>
-  </si>
-  <si>
-    <t>MANUEL FRANCISCO YEPES CUADRO</t>
-  </si>
-  <si>
-    <t>1143370733</t>
-  </si>
-  <si>
-    <t>RICHARD DAVID HERRERA PAMZZA</t>
-  </si>
-  <si>
-    <t>1007971093</t>
-  </si>
-  <si>
-    <t>YOREYSI MARGARITA CASSIANI TORRES</t>
-  </si>
-  <si>
-    <t>1007856828</t>
-  </si>
-  <si>
-    <t>ANDRU JOSE VARGAS ACEVEDO</t>
-  </si>
-  <si>
-    <t>1007381252</t>
-  </si>
-  <si>
-    <t>JUAN DIEGO ARNEDO BERRIO</t>
-  </si>
-  <si>
-    <t>994067029092000</t>
-  </si>
-  <si>
-    <t>CARLOS DANIEL JIMENEZ HIDALGO</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>1050965297</t>
-  </si>
-  <si>
-    <t>BAYRON DARIO LIÑAN GARCIA</t>
-  </si>
-  <si>
-    <t>20365567</t>
-  </si>
-  <si>
-    <t>RODNEY JOSE MARTINEZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>8631177</t>
-  </si>
-  <si>
-    <t>ADAN RAFAEL JARAMILLO VILLARREAL</t>
-  </si>
-  <si>
-    <t>1007802164</t>
-  </si>
-  <si>
-    <t>JUAN JOSE GALVAN CASTILLA</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -419,7 +350,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -432,9 +365,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -634,23 +565,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -678,10 +609,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4556D391-59CE-6568-825E-C01CB734C6C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B6A9EA-C21E-24B7-C9E9-235765898534}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1085,8 +1016,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A489957-012F-457C-85B2-730347D6FC2B}">
-  <dimension ref="B2:J163"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA514F8-4917-4BED-862E-F1A64CACC023}">
+  <dimension ref="B2:J145"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1097,7 +1028,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1110,7 +1041,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1155,7 +1086,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1187,12 +1118,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>7630207</v>
+        <v>5651667</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1203,17 +1134,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1240,13 +1171,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1263,10 +1194,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1274,22 +1205,22 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17" s="18">
-        <v>60000</v>
+        <v>48000</v>
       </c>
       <c r="G17" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1297,22 +1228,22 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1320,22 +1251,22 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F19" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1343,22 +1274,22 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1366,22 +1297,22 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1392,19 +1323,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
-        <v>60000</v>
+        <v>28000</v>
       </c>
       <c r="G22" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1412,22 +1343,22 @@
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F23" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1438,19 +1369,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1458,22 +1389,22 @@
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1484,19 +1415,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1504,22 +1435,22 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F27" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1527,22 +1458,22 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1553,19 +1484,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G29" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1573,22 +1504,22 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G30" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1596,22 +1527,22 @@
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1622,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G32" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1642,22 +1573,22 @@
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G33" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1665,22 +1596,22 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G34" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1691,19 +1622,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F35" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1711,22 +1642,22 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="E36" s="16" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F36" s="18">
-        <v>52000</v>
+        <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1734,22 +1665,22 @@
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F37" s="18">
-        <v>180000</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>4260000</v>
+        <v>1000000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1757,22 +1688,22 @@
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F38" s="18">
-        <v>180000</v>
+        <v>40000</v>
       </c>
       <c r="G38" s="18">
-        <v>4260000</v>
+        <v>1000000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1780,22 +1711,22 @@
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F39" s="18">
-        <v>180000</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="18">
-        <v>4260000</v>
+        <v>1000000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1803,22 +1734,22 @@
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F40" s="18">
-        <v>180000</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>4260000</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1826,22 +1757,22 @@
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F41" s="18">
-        <v>180000</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>4260000</v>
+        <v>1000000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1852,19 +1783,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="F42" s="18">
-        <v>180000</v>
+        <v>40000</v>
       </c>
       <c r="G42" s="18">
-        <v>4260000</v>
+        <v>2500000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1872,22 +1803,22 @@
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F43" s="18">
-        <v>240000</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>6000000</v>
+        <v>1000000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1895,16 +1826,16 @@
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F44" s="18">
         <v>40000</v>
@@ -1921,19 +1852,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>37</v>
-      </c>
       <c r="F45" s="18">
-        <v>1667</v>
+        <v>100000</v>
       </c>
       <c r="G45" s="18">
-        <v>1100000</v>
+        <v>2500000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1944,19 +1875,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F46" s="18">
-        <v>80000</v>
+        <v>1667</v>
       </c>
       <c r="G46" s="18">
-        <v>828116</v>
+        <v>1250000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1964,16 +1895,16 @@
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F47" s="18">
         <v>40000</v>
@@ -1987,16 +1918,16 @@
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F48" s="18">
         <v>40000</v>
@@ -2010,22 +1941,22 @@
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F49" s="18">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="G49" s="18">
-        <v>1000000</v>
+        <v>2500000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -2033,16 +1964,16 @@
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F50" s="18">
         <v>40000</v>
@@ -2056,16 +1987,16 @@
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F51" s="18">
         <v>40000</v>
@@ -2079,16 +2010,16 @@
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F52" s="18">
         <v>40000</v>
@@ -2102,16 +2033,16 @@
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="16" t="s">
         <v>40</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>17</v>
       </c>
       <c r="F53" s="18">
         <v>40000</v>
@@ -2125,16 +2056,16 @@
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C54" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F54" s="18">
         <v>40000</v>
@@ -2148,16 +2079,16 @@
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C55" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="16" t="s">
         <v>41</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F55" s="18">
         <v>40000</v>
@@ -2171,16 +2102,16 @@
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F56" s="18">
         <v>40000</v>
@@ -2194,16 +2125,16 @@
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F57" s="18">
         <v>40000</v>
@@ -2217,16 +2148,16 @@
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="F58" s="18">
         <v>40000</v>
@@ -2240,16 +2171,16 @@
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="F59" s="18">
         <v>40000</v>
@@ -2263,16 +2194,16 @@
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="F60" s="18">
         <v>40000</v>
@@ -2286,16 +2217,16 @@
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F61" s="18">
         <v>40000</v>
@@ -2309,16 +2240,16 @@
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F62" s="18">
         <v>40000</v>
@@ -2332,16 +2263,16 @@
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" s="18">
         <v>40000</v>
@@ -2355,16 +2286,16 @@
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F64" s="18">
         <v>40000</v>
@@ -2378,13 +2309,13 @@
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E65" s="16" t="s">
         <v>46</v>
@@ -2401,13 +2332,13 @@
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E66" s="16" t="s">
         <v>47</v>
@@ -2424,16 +2355,16 @@
     </row>
     <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F67" s="18">
         <v>40000</v>
@@ -2447,16 +2378,16 @@
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F68" s="18">
         <v>40000</v>
@@ -2470,16 +2401,16 @@
     </row>
     <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F69" s="18">
         <v>40000</v>
@@ -2493,16 +2424,16 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F70" s="18">
         <v>40000</v>
@@ -2516,16 +2447,16 @@
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F71" s="18">
         <v>40000</v>
@@ -2539,16 +2470,16 @@
     </row>
     <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F72" s="18">
         <v>40000</v>
@@ -2562,16 +2493,16 @@
     </row>
     <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F73" s="18">
         <v>40000</v>
@@ -2585,16 +2516,16 @@
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F74" s="18">
         <v>40000</v>
@@ -2608,16 +2539,16 @@
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F75" s="18">
         <v>40000</v>
@@ -2631,22 +2562,22 @@
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F76" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G76" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2654,16 +2585,16 @@
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F77" s="18">
         <v>40000</v>
@@ -2677,16 +2608,16 @@
     </row>
     <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F78" s="18">
         <v>40000</v>
@@ -2700,22 +2631,22 @@
     </row>
     <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F79" s="18">
-        <v>40000</v>
+        <v>34000</v>
       </c>
       <c r="G79" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2723,22 +2654,22 @@
     </row>
     <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F80" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G80" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2746,16 +2677,16 @@
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F81" s="18">
         <v>40000</v>
@@ -2769,16 +2700,16 @@
     </row>
     <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F82" s="18">
         <v>40000</v>
@@ -2792,22 +2723,22 @@
     </row>
     <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F83" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G83" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2815,22 +2746,22 @@
     </row>
     <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F84" s="18">
-        <v>48000</v>
+        <v>60000</v>
       </c>
       <c r="G84" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
@@ -2838,22 +2769,22 @@
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F85" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G85" s="18">
-        <v>1423500</v>
+        <v>1000000</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
@@ -2861,22 +2792,22 @@
     </row>
     <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F86" s="18">
-        <v>57600</v>
+        <v>40000</v>
       </c>
       <c r="G86" s="18">
-        <v>1440000</v>
+        <v>1000000</v>
       </c>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
@@ -2887,13 +2818,13 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F87" s="18">
         <v>60000</v>
@@ -2910,13 +2841,13 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F88" s="18">
         <v>60000</v>
@@ -2930,22 +2861,22 @@
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F89" s="18">
-        <v>58000</v>
+        <v>40000</v>
       </c>
       <c r="G89" s="18">
-        <v>1450000</v>
+        <v>1000000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
@@ -2953,22 +2884,22 @@
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F90" s="18">
-        <v>58000</v>
+        <v>40000</v>
       </c>
       <c r="G90" s="18">
-        <v>1450000</v>
+        <v>1000000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
@@ -2979,19 +2910,19 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F91" s="18">
-        <v>58000</v>
+        <v>60000</v>
       </c>
       <c r="G91" s="18">
-        <v>1450000</v>
+        <v>1500000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
@@ -2999,22 +2930,22 @@
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F92" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G92" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
@@ -3022,16 +2953,16 @@
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F93" s="18">
         <v>40000</v>
@@ -3045,16 +2976,16 @@
     </row>
     <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="F94" s="18">
         <v>40000</v>
@@ -3068,22 +2999,22 @@
     </row>
     <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="F95" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G95" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
@@ -3091,22 +3022,22 @@
     </row>
     <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F96" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G96" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
@@ -3114,16 +3045,16 @@
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F97" s="18">
         <v>40000</v>
@@ -3137,16 +3068,16 @@
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F98" s="18">
         <v>40000</v>
@@ -3160,22 +3091,22 @@
     </row>
     <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F99" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G99" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
@@ -3183,22 +3114,22 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="F100" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G100" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
@@ -3206,16 +3137,16 @@
     </row>
     <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F101" s="18">
         <v>40000</v>
@@ -3229,16 +3160,16 @@
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="F102" s="18">
         <v>40000</v>
@@ -3252,22 +3183,22 @@
     </row>
     <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="F103" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G103" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
@@ -3275,22 +3206,22 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="F104" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G104" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
@@ -3298,16 +3229,16 @@
     </row>
     <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="F105" s="18">
         <v>40000</v>
@@ -3321,16 +3252,16 @@
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F106" s="18">
         <v>40000</v>
@@ -3344,22 +3275,22 @@
     </row>
     <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F107" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G107" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
@@ -3367,22 +3298,22 @@
     </row>
     <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F108" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G108" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
@@ -3390,16 +3321,16 @@
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F109" s="18">
         <v>40000</v>
@@ -3413,16 +3344,16 @@
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F110" s="18">
         <v>40000</v>
@@ -3436,22 +3367,22 @@
     </row>
     <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F111" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G111" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
@@ -3459,22 +3390,22 @@
     </row>
     <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F112" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G112" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
@@ -3482,16 +3413,16 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F113" s="18">
         <v>40000</v>
@@ -3505,16 +3436,16 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F114" s="18">
         <v>40000</v>
@@ -3528,22 +3459,22 @@
     </row>
     <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F115" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G115" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
@@ -3551,22 +3482,22 @@
     </row>
     <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F116" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G116" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
@@ -3574,16 +3505,16 @@
     </row>
     <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="F117" s="18">
         <v>40000</v>
@@ -3597,16 +3528,16 @@
     </row>
     <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="F118" s="18">
         <v>40000</v>
@@ -3620,22 +3551,22 @@
     </row>
     <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="F119" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G119" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
@@ -3643,22 +3574,22 @@
     </row>
     <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F120" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G120" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
@@ -3666,16 +3597,16 @@
     </row>
     <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F121" s="18">
         <v>40000</v>
@@ -3689,16 +3620,16 @@
     </row>
     <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F122" s="18">
         <v>40000</v>
@@ -3712,22 +3643,22 @@
     </row>
     <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="F123" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G123" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
@@ -3735,22 +3666,22 @@
     </row>
     <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F124" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G124" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
@@ -3758,16 +3689,16 @@
     </row>
     <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F125" s="18">
         <v>40000</v>
@@ -3781,16 +3712,16 @@
     </row>
     <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F126" s="18">
         <v>40000</v>
@@ -3804,22 +3735,22 @@
     </row>
     <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F127" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G127" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
@@ -3827,22 +3758,22 @@
     </row>
     <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="F128" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G128" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
@@ -3850,16 +3781,16 @@
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F129" s="18">
         <v>40000</v>
@@ -3873,16 +3804,16 @@
     </row>
     <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="F130" s="18">
         <v>40000</v>
@@ -3896,22 +3827,22 @@
     </row>
     <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F131" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G131" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
@@ -3919,22 +3850,22 @@
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F132" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G132" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
@@ -3942,22 +3873,22 @@
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F133" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G133" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
@@ -3965,22 +3896,22 @@
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="F134" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G134" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
@@ -3991,13 +3922,13 @@
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F135" s="18">
         <v>60000</v>
@@ -4014,13 +3945,13 @@
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F136" s="18">
         <v>60000</v>
@@ -4034,22 +3965,22 @@
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="F137" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G137" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
@@ -4057,492 +3988,78 @@
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="F138" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G138" s="18">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
       <c r="J138" s="20"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B139" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E139" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F139" s="18">
+      <c r="B139" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E139" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F139" s="24">
         <v>60000</v>
       </c>
-      <c r="G139" s="18">
+      <c r="G139" s="24">
         <v>1500000</v>
       </c>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="20"/>
-    </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B140" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D140" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E140" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F140" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G140" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="20"/>
-    </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B141" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D141" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E141" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F141" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G141" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H141" s="19"/>
-      <c r="I141" s="19"/>
-      <c r="J141" s="20"/>
-    </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B142" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C142" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D142" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E142" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F142" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G142" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="20"/>
-    </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B143" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D143" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F143" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G143" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H143" s="19"/>
-      <c r="I143" s="19"/>
-      <c r="J143" s="20"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="26"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B144" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C144" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D144" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E144" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F144" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G144" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H144" s="19"/>
-      <c r="I144" s="19"/>
-      <c r="J144" s="20"/>
+      <c r="B144" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C144" s="32"/>
+      <c r="H144" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
     </row>
     <row r="145" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B145" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F145" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G145" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="20"/>
-    </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B146" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E146" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F146" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G146" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B147" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F147" s="18">
-        <v>34000</v>
-      </c>
-      <c r="G147" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H147" s="19"/>
-      <c r="I147" s="19"/>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B148" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D148" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E148" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="F148" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G148" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H148" s="19"/>
-      <c r="I148" s="19"/>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B149" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E149" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F149" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G149" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="20"/>
-    </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B150" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E150" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="F150" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G150" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H150" s="19"/>
-      <c r="I150" s="19"/>
-      <c r="J150" s="20"/>
-    </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B151" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E151" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F151" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G151" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H151" s="19"/>
-      <c r="I151" s="19"/>
-      <c r="J151" s="20"/>
-    </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B152" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D152" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E152" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F152" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G152" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="20"/>
-    </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B153" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D153" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="E153" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F153" s="18">
-        <v>28000</v>
-      </c>
-      <c r="G153" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="20"/>
-    </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B154" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D154" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E154" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F154" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G154" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="20"/>
-    </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B155" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C155" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D155" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E155" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="F155" s="18">
-        <v>100000</v>
-      </c>
-      <c r="G155" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="20"/>
-    </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B156" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C156" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="D156" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E156" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F156" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G156" s="18">
-        <v>2500000</v>
-      </c>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="20"/>
-    </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B157" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C157" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D157" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E157" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" s="24">
-        <v>58000</v>
-      </c>
-      <c r="G157" s="24">
-        <v>1450000</v>
-      </c>
-      <c r="H157" s="25"/>
-      <c r="I157" s="25"/>
-      <c r="J157" s="26"/>
-    </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B162" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C162" s="32"/>
-      <c r="H162" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-    </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B163" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C163" s="32"/>
-      <c r="H163" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
+      <c r="B145" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C145" s="32"/>
+      <c r="H145" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="H163:J163"/>
-    <mergeCell ref="H162:J162"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="H145:J145"/>
+    <mergeCell ref="H144:J144"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
